--- a/Excel/LoadWeapon挂载武器信息.xlsx
+++ b/Excel/LoadWeapon挂载武器信息.xlsx
@@ -130,11 +130,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PrototypeLoadWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +502,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,7 +518,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
